--- a/xlsx/country_comparison/convergence_support_share.xlsx
+++ b/xlsx/country_comparison/convergence_support_share.xlsx
@@ -421,34 +421,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.795260968544243</v>
+        <v>0.775212622733315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.732113423931037</v>
+        <v>0.744120842484801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.882831240076136</v>
+        <v>0.87420448766664</v>
       </c>
       <c r="E2" t="n">
-        <v>0.606534090909091</v>
+        <v>0.706016370730318</v>
       </c>
       <c r="F2" t="n">
-        <v>0.732292110328892</v>
+        <v>0.872334291753858</v>
       </c>
       <c r="G2" t="n">
-        <v>0.92622117490991</v>
+        <v>0.925921158880755</v>
       </c>
       <c r="H2" t="n">
-        <v>0.763184923293361</v>
+        <v>0.817419138523113</v>
       </c>
       <c r="I2" t="n">
-        <v>0.730081796723628</v>
+        <v>0.634739037901138</v>
       </c>
       <c r="J2" t="n">
-        <v>0.646744570317472</v>
+        <v>0.657802254656529</v>
       </c>
       <c r="K2" t="n">
-        <v>0.625961267323851</v>
+        <v>0.521276246205661</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/convergence_support_share.xlsx
+++ b/xlsx/country_comparison/convergence_support_share.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,30 +32,29 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to
-have all countries converge in terms of
-GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to have
+all countries converge in terms of GDP per capita by the end of the century"</t>
   </si>
 </sst>
 </file>
@@ -415,40 +420,52 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.775212622733315</v>
+        <v>0.690994277929796</v>
       </c>
       <c r="C2" t="n">
-        <v>0.744120842484801</v>
+        <v>0.780310385878786</v>
       </c>
       <c r="D2" t="n">
-        <v>0.87420448766664</v>
+        <v>0.767261516731427</v>
       </c>
       <c r="E2" t="n">
-        <v>0.706016370730318</v>
+        <v>0.757541746745335</v>
       </c>
       <c r="F2" t="n">
-        <v>0.872334291753858</v>
+        <v>0.874984008964506</v>
       </c>
       <c r="G2" t="n">
-        <v>0.925921158880755</v>
+        <v>0.847206298409435</v>
       </c>
       <c r="H2" t="n">
-        <v>0.817419138523113</v>
+        <v>0.842339547896951</v>
       </c>
       <c r="I2" t="n">
-        <v>0.634739037901138</v>
+        <v>0.65799487387268</v>
       </c>
       <c r="J2" t="n">
-        <v>0.657802254656529</v>
+        <v>0.656332785129309</v>
       </c>
       <c r="K2" t="n">
-        <v>0.521276246205661</v>
+        <v>0.703872306697267</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.92816201896394</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.562257327151909</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/convergence_support_share.xlsx
+++ b/xlsx/country_comparison/convergence_support_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -426,13 +429,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.690994277929796</v>
+        <v>0.706072881772088</v>
       </c>
       <c r="C2" t="n">
         <v>0.780310385878786</v>
@@ -462,9 +468,12 @@
         <v>0.703872306697267</v>
       </c>
       <c r="L2" t="n">
+        <v>0.784057236996414</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.92816201896394</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.562257327151909</v>
       </c>
     </row>

--- a/xlsx/country_comparison/convergence_support_share.xlsx
+++ b/xlsx/country_comparison/convergence_support_share.xlsx
@@ -56,8 +56,8 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.706072881772088</v>
+        <v>0.704965329416964</v>
       </c>
       <c r="C2" t="n">
         <v>0.780310385878786</v>
@@ -465,16 +465,16 @@
         <v>0.656332785129309</v>
       </c>
       <c r="K2" t="n">
-        <v>0.703872306697267</v>
+        <v>0.703874631903231</v>
       </c>
       <c r="L2" t="n">
-        <v>0.784057236996414</v>
+        <v>0.777916745185535</v>
       </c>
       <c r="M2" t="n">
         <v>0.92816201896394</v>
       </c>
       <c r="N2" t="n">
-        <v>0.562257327151909</v>
+        <v>0.562406199574745</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/convergence_support_share.xlsx
+++ b/xlsx/country_comparison/convergence_support_share.xlsx
@@ -438,7 +438,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.704965329416964</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C2" t="n">
         <v>0.780310385878786</v>
@@ -456,7 +456,7 @@
         <v>0.847206298409435</v>
       </c>
       <c r="H2" t="n">
-        <v>0.842339547896951</v>
+        <v>0.842339547896952</v>
       </c>
       <c r="I2" t="n">
         <v>0.65799487387268</v>
@@ -468,7 +468,7 @@
         <v>0.703874631903231</v>
       </c>
       <c r="L2" t="n">
-        <v>0.777916745185535</v>
+        <v>0.777883926828007</v>
       </c>
       <c r="M2" t="n">
         <v>0.92816201896394</v>
